--- a/biology/Zoologie/Hypertragulidae/Hypertragulidae.xlsx
+++ b/biology/Zoologie/Hypertragulidae/Hypertragulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hypertragulidae (hypertragulidés en français) sont une famille éteinte de mammifères artiodactyles ayant vécu de l'Éocène au Miocène entre −46 millions d’années et −13 millions d’années.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces espèces étaient de petits ruminants ressemblant à des chevrotains dont la masse ne dépassait pas 2 à 5 kg.
 </t>
@@ -542,15 +556,17 @@
           <t>Liste des genres et sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (4 décembre 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (4 décembre 2020) :
 genre Andegameryx Ginsburg, 1971 †
 genre Hypertragulus Cope, 1874 †
 genre Hypisodus Cope, 1873 †
 genre Nanotragulus Lull, 1922 †
 genre Notomeryx Qiu, 1978 †
-Selon Paleobiology Database                   (4 décembre 2020)[2] :
+Selon Paleobiology Database                   (4 décembre 2020) :
 genre Andegameryx
 sous-famille Hypertragulinae
 genre Hypertragulus
